--- a/Parkstone/1parkstone_tech_specs/new reports/Maturity List 2015 V1 QuickFusion.xlsx
+++ b/Parkstone/1parkstone_tech_specs/new reports/Maturity List 2015 V1 QuickFusion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Parkstone\1parkstone_tech_specs\new reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2685" windowWidth="11520" windowHeight="2940" tabRatio="865" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="2688" windowWidth="11520" windowHeight="2940" tabRatio="865"/>
   </bookViews>
   <sheets>
     <sheet name="Aggregate Investment Report" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
   <si>
     <t xml:space="preserve">INVESTMENT </t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>top ups</t>
+  </si>
+  <si>
+    <t>see investments/client_statement.ctp</t>
   </si>
 </sst>
 </file>
@@ -185,8 +194,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -379,7 +388,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="137">
@@ -396,56 +405,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -459,38 +468,38 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -498,40 +507,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
@@ -544,44 +553,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -888,44 +897,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K131"/>
+  <dimension ref="B2:L131"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="B7:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="38" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" style="38" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" style="38"/>
-    <col min="15" max="15" width="10.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="1" width="9.15625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="32.68359375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="15.26171875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="21.41796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.15625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="17.26171875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="18.15625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21.83984375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="24.578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="21.83984375" style="38" customWidth="1"/>
+    <col min="11" max="11" width="21.26171875" style="38" customWidth="1"/>
+    <col min="12" max="14" width="9.15625" style="38"/>
+    <col min="15" max="15" width="10.26171875" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.68359375" style="38" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.15625" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" s="28" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
       <c r="C2" s="98"/>
       <c r="D2" s="99"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C3" s="93"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -957,7 +966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -983,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="81"/>
@@ -995,7 +1004,7 @@
       <c r="J6" s="70"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="41" t="s">
         <v>18</v>
       </c>
@@ -1030,8 +1039,11 @@
         <f t="shared" ref="K7:K15" si="3">J7+D7</f>
         <v>6695.0260273972599</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="41"/>
       <c r="C8" s="42">
         <v>41891</v>
@@ -1064,8 +1076,11 @@
         <f t="shared" si="3"/>
         <v>733.56164383561645</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="41"/>
       <c r="C9" s="42">
         <v>41920</v>
@@ -1098,8 +1113,11 @@
         <f t="shared" si="3"/>
         <v>721.64383561643831</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="41"/>
       <c r="C10" s="42">
         <v>41941</v>
@@ -1133,7 +1151,7 @@
         <v>713.01369863013701</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="41"/>
       <c r="C11" s="42">
         <v>41961</v>
@@ -1167,7 +1185,7 @@
         <v>704.79452054794524</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="41"/>
       <c r="C12" s="42">
         <v>41977</v>
@@ -1201,7 +1219,7 @@
         <v>698.21917808219177</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="41"/>
       <c r="C13" s="42">
         <v>41991</v>
@@ -1235,7 +1253,7 @@
         <v>692.46575342465758</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="41"/>
       <c r="C14" s="42">
         <v>42032</v>
@@ -1269,7 +1287,7 @@
         <v>675.61643835616439</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="41"/>
       <c r="C15" s="42">
         <v>42032</v>
@@ -1303,7 +1321,7 @@
         <v>675.61643835616439</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="70"/>
       <c r="C16" s="55"/>
       <c r="D16" s="34"/>
@@ -1315,7 +1333,7 @@
       <c r="J16" s="57"/>
       <c r="K16" s="58"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="64" t="s">
         <v>19</v>
       </c>
@@ -1351,7 +1369,7 @@
         <v>279.37503424657535</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="64"/>
       <c r="C18" s="42">
         <v>41964</v>
@@ -1385,7 +1403,7 @@
         <v>117.26027397260273</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="64"/>
       <c r="C19" s="42">
         <v>41989</v>
@@ -1419,7 +1437,7 @@
         <v>115.54794520547945</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="64"/>
       <c r="C20" s="42"/>
       <c r="D20" s="18"/>
@@ -1431,7 +1449,7 @@
       <c r="J20" s="45"/>
       <c r="K20" s="47"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="64"/>
       <c r="C21" s="42"/>
       <c r="D21" s="18"/>
@@ -1443,7 +1461,7 @@
       <c r="J21" s="45"/>
       <c r="K21" s="47"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="67"/>
       <c r="C22" s="42"/>
       <c r="D22" s="19"/>
@@ -1455,7 +1473,7 @@
       <c r="J22" s="53"/>
       <c r="K22" s="63"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="64" t="s">
         <v>20</v>
       </c>
@@ -1469,7 +1487,7 @@
       <c r="J23" s="57"/>
       <c r="K23" s="58"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="64"/>
       <c r="C24" s="42">
         <v>42083</v>
@@ -1503,7 +1521,7 @@
         <v>152.9389109589041</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="64"/>
       <c r="C25" s="42">
         <v>42096</v>
@@ -1537,7 +1555,7 @@
         <v>162.32876712328766</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="64"/>
       <c r="C26" s="42">
         <v>42194</v>
@@ -1571,7 +1589,7 @@
         <v>101.50684931506849</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="64"/>
       <c r="C27" s="42"/>
       <c r="D27" s="30"/>
@@ -1583,7 +1601,7 @@
       <c r="J27" s="71"/>
       <c r="K27" s="47"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="64"/>
       <c r="C28" s="42"/>
       <c r="D28" s="30"/>
@@ -1595,7 +1613,7 @@
       <c r="J28" s="71"/>
       <c r="K28" s="47"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="64"/>
       <c r="C29" s="42"/>
       <c r="D29" s="30"/>
@@ -1607,7 +1625,7 @@
       <c r="J29" s="71"/>
       <c r="K29" s="47"/>
     </row>
-    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="67"/>
       <c r="C30" s="50"/>
       <c r="D30" s="31"/>
@@ -1619,7 +1637,7 @@
       <c r="J30" s="53"/>
       <c r="K30" s="63"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="64"/>
       <c r="C31" s="40"/>
       <c r="D31" s="74"/>
@@ -1631,7 +1649,7 @@
       <c r="J31" s="71"/>
       <c r="K31" s="58"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="64" t="s">
         <v>21</v>
       </c>
@@ -1667,7 +1685,7 @@
         <v>689.2986115068494</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="64"/>
       <c r="C33" s="42">
         <v>42017</v>
@@ -1701,7 +1719,7 @@
         <v>565.42465753424653</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B34" s="66"/>
       <c r="C34" s="42"/>
       <c r="D34" s="30"/>
@@ -1713,7 +1731,7 @@
       <c r="J34" s="71"/>
       <c r="K34" s="47"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="70"/>
       <c r="C35" s="40"/>
       <c r="D35" s="74"/>
@@ -1725,7 +1743,7 @@
       <c r="J35" s="57"/>
       <c r="K35" s="69"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="64" t="s">
         <v>22</v>
       </c>
@@ -1761,7 +1779,7 @@
         <v>236.03287671232877</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="64"/>
       <c r="C37" s="42">
         <v>41977</v>
@@ -1795,7 +1813,7 @@
         <v>231.43013698630136</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="64"/>
       <c r="C38" s="42">
         <v>41977</v>
@@ -1829,7 +1847,7 @@
         <v>231.43013698630136</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="64"/>
       <c r="C39" s="42">
         <v>42094</v>
@@ -1863,7 +1881,7 @@
         <v>216.04383561643834</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="64"/>
       <c r="C40" s="42">
         <v>42140</v>
@@ -1897,7 +1915,7 @@
         <v>209.9945205479452</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="64"/>
       <c r="C41" s="42">
         <v>42163</v>
@@ -1931,7 +1949,7 @@
         <v>206.96986301369864</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="64"/>
       <c r="C42" s="42">
         <v>42187</v>
@@ -1965,7 +1983,7 @@
         <v>203.813698630137</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="64"/>
       <c r="C43" s="42"/>
       <c r="D43" s="30"/>
@@ -1977,7 +1995,7 @@
       <c r="J43" s="45"/>
       <c r="K43" s="46"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="64"/>
       <c r="C44" s="42"/>
       <c r="D44" s="30"/>
@@ -1989,7 +2007,7 @@
       <c r="J44" s="45"/>
       <c r="K44" s="46"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="64"/>
       <c r="C45" s="42"/>
       <c r="D45" s="30"/>
@@ -2001,7 +2019,7 @@
       <c r="J45" s="45"/>
       <c r="K45" s="46"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="64"/>
       <c r="C46" s="42"/>
       <c r="D46" s="30"/>
@@ -2013,7 +2031,7 @@
       <c r="J46" s="45"/>
       <c r="K46" s="46"/>
     </row>
-    <row r="47" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B47" s="64"/>
       <c r="C47" s="41"/>
       <c r="D47" s="30"/>
@@ -2025,7 +2043,7 @@
       <c r="J47" s="45"/>
       <c r="K47" s="46"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="70"/>
       <c r="C48" s="55"/>
       <c r="D48" s="72"/>
@@ -2037,7 +2055,7 @@
       <c r="J48" s="57"/>
       <c r="K48" s="69"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="64" t="s">
         <v>24</v>
       </c>
@@ -2073,7 +2091,7 @@
         <v>20113.972602739726</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="64"/>
       <c r="C50" s="42"/>
       <c r="D50" s="10"/>
@@ -2085,7 +2103,7 @@
       <c r="J50" s="45"/>
       <c r="K50" s="46"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="64"/>
       <c r="C51" s="42"/>
       <c r="D51" s="10"/>
@@ -2097,7 +2115,7 @@
       <c r="J51" s="45"/>
       <c r="K51" s="46"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="64"/>
       <c r="C52" s="42"/>
       <c r="D52" s="10"/>
@@ -2109,7 +2127,7 @@
       <c r="J52" s="45"/>
       <c r="K52" s="46"/>
     </row>
-    <row r="53" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B53" s="67"/>
       <c r="C53" s="50"/>
       <c r="D53" s="52"/>
@@ -2121,7 +2139,7 @@
       <c r="J53" s="53"/>
       <c r="K53" s="54"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="70"/>
       <c r="C54" s="42"/>
       <c r="D54" s="10"/>
@@ -2133,7 +2151,7 @@
       <c r="J54" s="45"/>
       <c r="K54" s="46"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="64" t="s">
         <v>23</v>
       </c>
@@ -2169,7 +2187,7 @@
         <v>5027.3972602739723</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="64"/>
       <c r="C56" s="42"/>
       <c r="D56" s="10"/>
@@ -2181,7 +2199,7 @@
       <c r="J56" s="45"/>
       <c r="K56" s="46"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="64"/>
       <c r="C57" s="42"/>
       <c r="D57" s="10"/>
@@ -2193,7 +2211,7 @@
       <c r="J57" s="45"/>
       <c r="K57" s="46"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="64"/>
       <c r="C58" s="42"/>
       <c r="D58" s="10"/>
@@ -2205,7 +2223,7 @@
       <c r="J58" s="45"/>
       <c r="K58" s="46"/>
     </row>
-    <row r="59" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B59" s="67"/>
       <c r="C59" s="50"/>
       <c r="D59" s="52"/>
@@ -2217,7 +2235,7 @@
       <c r="J59" s="53"/>
       <c r="K59" s="54"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="48"/>
       <c r="C60" s="44"/>
       <c r="D60" s="10"/>
@@ -2229,7 +2247,7 @@
       <c r="J60" s="75"/>
       <c r="K60" s="76"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="48"/>
       <c r="C61" s="44"/>
       <c r="D61" s="10"/>
@@ -2241,7 +2259,7 @@
       <c r="J61" s="75"/>
       <c r="K61" s="76"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="48"/>
       <c r="C62" s="44"/>
       <c r="D62" s="10"/>
@@ -2253,7 +2271,7 @@
       <c r="J62" s="75"/>
       <c r="K62" s="76"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="48"/>
       <c r="C63" s="44"/>
       <c r="D63" s="10"/>
@@ -2265,7 +2283,7 @@
       <c r="J63" s="75"/>
       <c r="K63" s="76"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="48"/>
       <c r="C64" s="44"/>
       <c r="D64" s="10"/>
@@ -2277,7 +2295,7 @@
       <c r="J64" s="75"/>
       <c r="K64" s="76"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="48" t="s">
         <v>16</v>
       </c>
@@ -2293,7 +2311,7 @@
       <c r="J65" s="75"/>
       <c r="K65" s="76"/>
     </row>
-    <row r="66" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B66" s="48"/>
       <c r="C66" s="44"/>
       <c r="D66" s="24">
@@ -2308,7 +2326,7 @@
       <c r="J66" s="75"/>
       <c r="K66" s="76"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="48"/>
       <c r="C67" s="44"/>
       <c r="D67" s="10"/>
@@ -2324,7 +2342,7 @@
       <c r="J67" s="75"/>
       <c r="K67" s="76"/>
     </row>
-    <row r="68" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B68" s="48"/>
       <c r="C68" s="44"/>
       <c r="D68" s="10"/>
@@ -2343,7 +2361,7 @@
       </c>
       <c r="K68" s="76"/>
     </row>
-    <row r="69" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="B69" s="78" t="s">
         <v>15</v>
       </c>
@@ -2354,194 +2372,194 @@
       <c r="E69" s="11"/>
       <c r="I69" s="44"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E70" s="11"/>
       <c r="I70" s="48"/>
       <c r="J70" s="100"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E71" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E72" s="11"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E76" s="11"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E77" s="11"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E78" s="11"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E79" s="11"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E80" s="11"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E81" s="11"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E82" s="11"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E83" s="11"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E84" s="11"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E85" s="11"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E86" s="11"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E87" s="11"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E88" s="11"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E89" s="11"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E90" s="11"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E91" s="11"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E92" s="11"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E93" s="11"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E94" s="11"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E95" s="11"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E96" s="11"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E97" s="11"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E98" s="11"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E99" s="11"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E100" s="11"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E101" s="11"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E102" s="11"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E103" s="11"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E104" s="11"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E105" s="11"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E106" s="11"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E107" s="11"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E108" s="11"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E109" s="11"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E110" s="11"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E111" s="11"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E112" s="11"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E113" s="11"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E114" s="11"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E115" s="11"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E116" s="11"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E117" s="11"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E118" s="11"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E119" s="11"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E120" s="11"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E121" s="11"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E122" s="11"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E123" s="11"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E124" s="11"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E125" s="11"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E126" s="11"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E127" s="11"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E128" s="11"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E129" s="11"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E130" s="11"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E131" s="11"/>
     </row>
   </sheetData>
@@ -2561,21 +2579,21 @@
       <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.83984375" customWidth="1"/>
+    <col min="2" max="2" width="43.68359375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.68359375" customWidth="1"/>
+    <col min="6" max="6" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.15625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2598,7 +2616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -2615,7 +2633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="17"/>
@@ -2624,7 +2642,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
@@ -2651,7 +2669,7 @@
       </c>
       <c r="J5" s="101"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
@@ -2678,7 +2696,7 @@
       </c>
       <c r="J6" s="101"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
@@ -2705,7 +2723,7 @@
       </c>
       <c r="J7" s="102"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="15" t="s">
         <v>28</v>
       </c>
@@ -2732,7 +2750,7 @@
       </c>
       <c r="J8" s="101"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
@@ -2759,7 +2777,7 @@
       </c>
       <c r="J9" s="101"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="64" t="s">
         <v>30</v>
       </c>
@@ -2786,7 +2804,7 @@
       </c>
       <c r="J10" s="101"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="64"/>
       <c r="C11" s="42">
         <v>42208</v>
@@ -2811,7 +2829,7 @@
       </c>
       <c r="J11" s="101"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="64"/>
       <c r="C12" s="42"/>
       <c r="D12" s="10"/>
@@ -2821,7 +2839,7 @@
       <c r="H12" s="25"/>
       <c r="J12" s="103"/>
     </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="41" t="s">
         <v>31</v>
       </c>
@@ -2835,7 +2853,7 @@
       <c r="H13" s="25"/>
       <c r="J13" s="103"/>
     </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="49"/>
       <c r="C14" s="50"/>
       <c r="D14" s="96">
@@ -2851,7 +2869,7 @@
       </c>
       <c r="J14" s="103"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="32"/>
@@ -2860,7 +2878,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="82"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="32"/>
@@ -2869,7 +2887,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="82"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="32"/>
@@ -2878,7 +2896,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="82"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="32"/>
@@ -2887,7 +2905,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="82"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="32"/>
@@ -2896,18 +2914,18 @@
       <c r="G20" s="9"/>
       <c r="H20" s="82"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="18.3" x14ac:dyDescent="0.7">
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" s="5"/>
     </row>
   </sheetData>
@@ -2920,24 +2938,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.578125" customWidth="1"/>
+    <col min="4" max="4" width="17.578125" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" customWidth="1"/>
+    <col min="6" max="6" width="14.68359375" customWidth="1"/>
+    <col min="7" max="7" width="15.26171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26171875" customWidth="1"/>
+    <col min="10" max="10" width="14.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="6"/>
@@ -2946,7 +2964,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="24" t="s">
@@ -2957,7 +2975,7 @@
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="6"/>
@@ -2966,7 +2984,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2995,7 +3013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -3018,7 +3036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="34"/>
@@ -3029,7 +3047,7 @@
       <c r="I6" s="106"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="41" t="s">
         <v>40</v>
       </c>
@@ -3056,7 +3074,7 @@
       <c r="I7" s="106"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="41"/>
       <c r="C8" s="42">
         <v>41806</v>
@@ -3083,7 +3101,7 @@
         <v>6038.41</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
       <c r="D9" s="19"/>
@@ -3094,7 +3112,7 @@
       <c r="I9" s="106"/>
       <c r="J9" s="104"/>
     </row>
-    <row r="10" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="7"/>
       <c r="C10" s="2"/>
       <c r="D10" s="12"/>
@@ -3105,7 +3123,7 @@
       <c r="I10" s="109"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="15"/>
       <c r="C11" s="106"/>
       <c r="D11" s="15"/>
@@ -3116,7 +3134,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="41" t="s">
         <v>39</v>
       </c>
@@ -3143,7 +3161,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="41"/>
       <c r="C13" s="111">
         <v>41836</v>
@@ -3168,7 +3186,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="41"/>
       <c r="C14" s="111">
         <v>41869</v>
@@ -3193,7 +3211,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="41"/>
       <c r="C15" s="111">
         <v>41929</v>
@@ -3221,7 +3239,7 @@
         <v>2185.4821917808222</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="104"/>
       <c r="C16" s="112"/>
       <c r="D16" s="104"/>
@@ -3232,7 +3250,7 @@
       <c r="I16" s="104"/>
       <c r="J16" s="104"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="33"/>
       <c r="C17" s="114"/>
       <c r="D17" s="33"/>
@@ -3243,7 +3261,7 @@
       <c r="I17" s="109"/>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="41" t="s">
         <v>38</v>
       </c>
@@ -3273,7 +3291,7 @@
         <v>10762.191780821919</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="15"/>
       <c r="C19" s="8"/>
       <c r="D19" s="15"/>
@@ -3284,7 +3302,7 @@
       <c r="I19" s="106"/>
       <c r="J19" s="104"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="40"/>
       <c r="C20" s="55"/>
       <c r="D20" s="34"/>
@@ -3296,7 +3314,7 @@
       <c r="J20" s="45"/>
       <c r="K20" s="76"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="41" t="s">
         <v>37</v>
       </c>
@@ -3324,7 +3342,7 @@
       <c r="J21" s="45"/>
       <c r="K21" s="76"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="41"/>
       <c r="C22" s="42">
         <v>41703</v>
@@ -3350,7 +3368,7 @@
       <c r="J22" s="45"/>
       <c r="K22" s="76"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="41"/>
       <c r="C23" s="42">
         <v>41716</v>
@@ -3376,7 +3394,7 @@
       <c r="J23" s="45"/>
       <c r="K23" s="76"/>
     </row>
-    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="41"/>
       <c r="C24" s="42">
         <v>41731</v>
@@ -3405,7 +3423,7 @@
       </c>
       <c r="K24" s="76"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="40"/>
       <c r="C25" s="55"/>
       <c r="D25" s="34"/>
@@ -3416,7 +3434,7 @@
       <c r="I25" s="109"/>
       <c r="J25" s="33"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="49" t="s">
         <v>36</v>
       </c>
@@ -3449,7 +3467,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>51</v>
       </c>
@@ -3488,41 +3506,41 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.41796875" customWidth="1"/>
+    <col min="2" max="2" width="24.26171875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.578125" customWidth="1"/>
+    <col min="5" max="5" width="14.83984375" customWidth="1"/>
+    <col min="6" max="6" width="20.578125" customWidth="1"/>
+    <col min="7" max="7" width="17.26171875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.26171875" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.83984375" customWidth="1"/>
+    <col min="12" max="12" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.578125" customWidth="1"/>
+    <col min="16" max="16" width="13.68359375" customWidth="1"/>
+    <col min="17" max="17" width="15.68359375" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.41796875" customWidth="1"/>
     <col min="20" max="22" width="18" customWidth="1"/>
-    <col min="23" max="24" width="16.85546875" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" customWidth="1"/>
+    <col min="23" max="24" width="16.83984375" customWidth="1"/>
+    <col min="25" max="25" width="16.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F2" s="78" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="Q3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3553,7 +3571,7 @@
       <c r="K4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="121" t="s">
+      <c r="L4" s="135" t="s">
         <v>33</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -3593,7 +3611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -3605,7 +3623,7 @@
       <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="121" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -3618,33 +3636,33 @@
       <c r="K5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="123"/>
+      <c r="L5" s="136"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="124" t="s">
+      <c r="P5" s="122" t="s">
         <v>8</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="125" t="s">
+      <c r="S5" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="124" t="s">
+      <c r="T5" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="126"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="126" t="s">
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="124" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="40"/>
       <c r="C6" s="55"/>
       <c r="D6" s="34"/>
@@ -3658,7 +3676,7 @@
       <c r="L6" s="33"/>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="41" t="s">
         <v>46</v>
       </c>
@@ -3698,7 +3716,7 @@
       <c r="L7" s="15"/>
       <c r="W7" s="6"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="41"/>
       <c r="C8" s="42">
         <v>41753</v>
@@ -3735,7 +3753,7 @@
       </c>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="41"/>
       <c r="C9" s="42">
         <v>41800</v>
@@ -3772,7 +3790,7 @@
       </c>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
@@ -3788,20 +3806,20 @@
         <v>325.87397260273974</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="133"/>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="131"/>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="41" t="s">
         <v>47</v>
       </c>
@@ -3838,7 +3856,7 @@
       </c>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="41"/>
       <c r="C13" s="42">
         <v>41976</v>
@@ -3873,7 +3891,7 @@
       </c>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
       <c r="D14" s="18"/>
@@ -3889,7 +3907,7 @@
         <v>4216.2438356164384</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
       <c r="C15" s="50"/>
       <c r="D15" s="19"/>
@@ -3902,7 +3920,7 @@
       <c r="K15" s="104"/>
       <c r="L15" s="104"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
       <c r="D16" s="18"/>
@@ -3915,7 +3933,7 @@
       <c r="K16" s="47"/>
       <c r="L16" s="33"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="41" t="s">
         <v>48</v>
       </c>
@@ -3952,7 +3970,7 @@
       </c>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="41"/>
       <c r="C18" s="42">
         <v>41703</v>
@@ -3987,7 +4005,7 @@
       </c>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="41"/>
       <c r="C19" s="42">
         <v>41730</v>
@@ -4022,7 +4040,7 @@
       </c>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="41"/>
       <c r="C20" s="42">
         <v>41828</v>
@@ -4057,7 +4075,7 @@
       </c>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="41"/>
       <c r="C21" s="42">
         <v>41880</v>
@@ -4092,7 +4110,7 @@
       </c>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="41"/>
       <c r="C22" s="42">
         <v>41921</v>
@@ -4127,7 +4145,7 @@
       </c>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="41"/>
       <c r="C23" s="42">
         <v>41981</v>
@@ -4162,7 +4180,7 @@
       </c>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
       <c r="D24" s="18"/>
@@ -4178,7 +4196,7 @@
         <v>2109.5890410958905</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
       <c r="D25" s="19"/>
@@ -4191,7 +4209,7 @@
       <c r="K25" s="63"/>
       <c r="L25" s="104"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="40"/>
       <c r="C26" s="55"/>
       <c r="D26" s="34"/>
@@ -4204,7 +4222,7 @@
       <c r="K26" s="58"/>
       <c r="L26" s="33"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="41" t="s">
         <v>49</v>
       </c>
@@ -4241,7 +4259,7 @@
       </c>
       <c r="L27" s="15"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
       <c r="D28" s="18"/>
@@ -4257,7 +4275,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
@@ -4270,7 +4288,7 @@
       <c r="K29" s="49"/>
       <c r="L29" s="104"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="33"/>
       <c r="C30" s="65">
         <v>42004</v>
@@ -4306,7 +4324,7 @@
       </c>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="15" t="s">
         <v>50</v>
       </c>
@@ -4344,7 +4362,7 @@
       </c>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="15"/>
       <c r="C32" s="65">
         <v>42026</v>
@@ -4378,12 +4396,12 @@
         <f>J32+D32</f>
         <v>111.58219178082192</v>
       </c>
-      <c r="L32" s="134">
+      <c r="L32" s="132">
         <f>SUM(K30:K32)</f>
         <v>930.62602739726026</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B33" s="104"/>
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
@@ -4393,34 +4411,34 @@
       <c r="H33" s="49"/>
       <c r="I33" s="67"/>
       <c r="J33" s="49"/>
-      <c r="K33" s="135"/>
+      <c r="K33" s="133"/>
       <c r="L33" s="104"/>
     </row>
-    <row r="34" spans="2:12" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" s="78" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="136">
+      <c r="D34" s="134">
         <f>SUM(D6:D33)</f>
         <v>7010</v>
       </c>
-      <c r="G34" s="136">
+      <c r="G34" s="134">
         <f>SUM(G6:G33)</f>
         <v>718.2024657534248</v>
       </c>
-      <c r="H34" s="136">
+      <c r="H34" s="134">
         <f>SUM(H6:H33)</f>
         <v>7728.2024657534248</v>
       </c>
-      <c r="J34" s="136">
+      <c r="J34" s="134">
         <f>SUM(J6:J33)</f>
         <v>690.33287671232893</v>
       </c>
-      <c r="K34" s="136">
+      <c r="K34" s="134">
         <f>SUM(K6:K33)</f>
         <v>7700.3328767123285</v>
       </c>
-      <c r="L34" s="136">
+      <c r="L34" s="134">
         <f>SUM(L6:L33)</f>
         <v>7700.3328767123294</v>
       </c>
